--- a/stat-auto-production-thai.xlsx
+++ b/stat-auto-production-thai.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D25BE1-40D5-4459-8B3F-74E79F86229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1346">
   <si>
     <t>Passenger Car</t>
   </si>
@@ -4050,19 +4055,17 @@
   </si>
   <si>
     <t>21,814,944</t>
+  </si>
+  <si>
+    <t>กันยายน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -4073,28 +4076,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4384,69 +4396,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
-    <col min="11" max="11" width="10" customWidth="true" style="0"/>
-    <col min="12" max="12" width="10" customWidth="true" style="0"/>
-    <col min="13" max="13" width="10" customWidth="true" style="0"/>
-    <col min="14" max="14" width="10" customWidth="true" style="0"/>
-    <col min="15" max="15" width="10" customWidth="true" style="0"/>
-    <col min="16" max="16" width="10" customWidth="true" style="0"/>
-    <col min="17" max="17" width="10" customWidth="true" style="0"/>
-    <col min="18" max="18" width="10" customWidth="true" style="0"/>
-    <col min="19" max="19" width="10" customWidth="true" style="0"/>
+    <col min="1" max="19" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1"/>
-      <c r="B1"/>
-      <c r="C1"/>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1"/>
-      <c r="F1"/>
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
       <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="M1"/>
-      <c r="N1"/>
       <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-    </row>
-    <row r="2" spans="1:19">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4505,7 +4481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4564,7 +4540,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4623,7 +4599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4682,7 +4658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4741,7 +4717,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4800,7 +4776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4859,7 +4835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4918,7 +4894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4977,7 +4953,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4985,7 +4961,7 @@
         <v>2012</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>1345</v>
       </c>
       <c r="D11" t="s">
         <v>109</v>
@@ -5036,7 +5012,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5095,7 +5071,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5154,7 +5130,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5213,7 +5189,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5272,7 +5248,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5331,7 +5307,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5390,7 +5366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5449,7 +5425,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5508,7 +5484,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5567,7 +5543,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5626,7 +5602,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5685,7 +5661,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5744,7 +5720,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5803,7 +5779,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5862,7 +5838,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5921,7 +5897,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5980,7 +5956,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6039,7 +6015,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6098,7 +6074,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6157,7 +6133,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6216,7 +6192,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6275,7 +6251,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6334,7 +6310,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6393,7 +6369,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6452,7 +6428,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6511,7 +6487,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6570,7 +6546,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6629,7 +6605,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6688,7 +6664,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6747,7 +6723,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6806,7 +6782,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6865,7 +6841,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6924,7 +6900,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6983,7 +6959,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -7042,7 +7018,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -7101,7 +7077,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -7160,7 +7136,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -7219,7 +7195,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -7278,7 +7254,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -7337,7 +7313,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -7396,7 +7372,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -7455,7 +7431,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -7514,7 +7490,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -7573,7 +7549,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -7632,7 +7608,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -7691,7 +7667,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -7750,7 +7726,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -7809,7 +7785,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -7868,7 +7844,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7927,7 +7903,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7986,7 +7962,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -8045,7 +8021,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -8104,7 +8080,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -8163,7 +8139,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -8222,7 +8198,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -8281,7 +8257,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -8340,7 +8316,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -8399,7 +8375,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -8458,7 +8434,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -8517,7 +8493,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -8576,7 +8552,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -8635,7 +8611,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -8694,7 +8670,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -8753,7 +8729,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -8812,7 +8788,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -8871,7 +8847,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -8930,7 +8906,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -8989,7 +8965,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -9048,7 +9024,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -9107,7 +9083,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -9166,7 +9142,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -9225,7 +9201,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -9284,7 +9260,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -9343,7 +9319,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -9402,7 +9378,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -9461,7 +9437,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -9520,7 +9496,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -9579,7 +9555,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -9638,7 +9614,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -9697,7 +9673,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -9756,7 +9732,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -9815,7 +9791,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -9874,7 +9850,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -9933,7 +9909,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -9992,7 +9968,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -10051,7 +10027,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -10110,7 +10086,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -10169,7 +10145,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -10228,7 +10204,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -10287,7 +10263,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -10346,7 +10322,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -10405,7 +10381,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -10464,7 +10440,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -10523,7 +10499,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -10582,7 +10558,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -10641,7 +10617,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -10700,7 +10676,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -10759,7 +10735,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -10818,7 +10794,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -10877,7 +10853,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -10936,7 +10912,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -10995,7 +10971,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -11054,7 +11030,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -11113,7 +11089,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -11172,7 +11148,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -11231,7 +11207,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -11290,7 +11266,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11349,7 +11325,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11408,7 +11384,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -11467,7 +11443,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -11526,7 +11502,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -11585,7 +11561,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11644,7 +11620,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11703,7 +11679,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -11762,7 +11738,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -11821,7 +11797,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -11880,7 +11856,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -11939,7 +11915,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -11998,7 +11974,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12057,7 +12033,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12116,7 +12092,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12175,7 +12151,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12234,7 +12210,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12293,9 +12269,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
-      <c r="A135"/>
-      <c r="B135"/>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
         <v>1329</v>
       </c>
@@ -12349,17 +12323,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/stat-auto-production-thai.xlsx
+++ b/stat-auto-production-thai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D25BE1-40D5-4459-8B3F-74E79F86229F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D320DB0-BF11-4917-97D7-22809557177B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="1345">
   <si>
     <t>Passenger Car</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>214,386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">กันยายน </t>
   </si>
   <si>
     <t>69,289</t>
@@ -4961,28 +4958,28 @@
         <v>2012</v>
       </c>
       <c r="C11" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>110</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>113</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>114</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -5003,13 +5000,13 @@
         <v>554</v>
       </c>
       <c r="Q11" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" t="s">
         <v>116</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>117</v>
-      </c>
-      <c r="S11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -5020,28 +5017,28 @@
         <v>2012</v>
       </c>
       <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
         <v>119</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>120</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>121</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>122</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>124</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>125</v>
-      </c>
-      <c r="J12" t="s">
-        <v>126</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -5062,13 +5059,13 @@
         <v>732</v>
       </c>
       <c r="Q12" t="s">
+        <v>126</v>
+      </c>
+      <c r="R12" t="s">
         <v>127</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>128</v>
-      </c>
-      <c r="S12" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -5079,28 +5076,28 @@
         <v>2012</v>
       </c>
       <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13" t="s">
         <v>130</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>131</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>132</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>133</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>134</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>135</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>136</v>
-      </c>
-      <c r="J13" t="s">
-        <v>137</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -5115,19 +5112,19 @@
         <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P13">
         <v>508</v>
       </c>
       <c r="Q13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R13" t="s">
         <v>139</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>140</v>
-      </c>
-      <c r="S13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -5138,28 +5135,28 @@
         <v>2012</v>
       </c>
       <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
         <v>142</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>144</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>145</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>146</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>147</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>148</v>
-      </c>
-      <c r="J14" t="s">
-        <v>149</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -5174,19 +5171,19 @@
         <v>31</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P14">
         <v>452</v>
       </c>
       <c r="Q14" t="s">
+        <v>150</v>
+      </c>
+      <c r="R14" t="s">
         <v>151</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>152</v>
-      </c>
-      <c r="S14" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -5200,25 +5197,25 @@
         <v>19</v>
       </c>
       <c r="D15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" t="s">
         <v>154</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>155</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>156</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>157</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>158</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>159</v>
-      </c>
-      <c r="J15" t="s">
-        <v>160</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -5239,13 +5236,13 @@
         <v>655</v>
       </c>
       <c r="Q15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" t="s">
         <v>161</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>162</v>
-      </c>
-      <c r="S15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -5259,25 +5256,25 @@
         <v>30</v>
       </c>
       <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16" t="s">
         <v>164</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>165</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>167</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>168</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>169</v>
-      </c>
-      <c r="J16" t="s">
-        <v>170</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5292,19 +5289,19 @@
         <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P16">
         <v>636</v>
       </c>
       <c r="Q16" t="s">
+        <v>171</v>
+      </c>
+      <c r="R16" t="s">
         <v>172</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>173</v>
-      </c>
-      <c r="S16" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -5318,25 +5315,25 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
         <v>175</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>176</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>177</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>178</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>179</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>180</v>
-      </c>
-      <c r="J17" t="s">
-        <v>181</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -5351,19 +5348,19 @@
         <v>58</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P17">
         <v>582</v>
       </c>
       <c r="Q17" t="s">
+        <v>182</v>
+      </c>
+      <c r="R17" t="s">
         <v>183</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>184</v>
-      </c>
-      <c r="S17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -5377,25 +5374,25 @@
         <v>53</v>
       </c>
       <c r="D18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" t="s">
         <v>186</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>187</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>188</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>189</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>190</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>191</v>
-      </c>
-      <c r="J18" t="s">
-        <v>192</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -5416,13 +5413,13 @@
         <v>438</v>
       </c>
       <c r="Q18" t="s">
+        <v>192</v>
+      </c>
+      <c r="R18" t="s">
         <v>193</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>194</v>
-      </c>
-      <c r="S18" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -5436,25 +5433,25 @@
         <v>64</v>
       </c>
       <c r="D19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
         <v>196</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>197</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>198</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>199</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>200</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>201</v>
-      </c>
-      <c r="J19" t="s">
-        <v>202</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -5469,19 +5466,19 @@
         <v>67</v>
       </c>
       <c r="O19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P19">
         <v>858</v>
       </c>
       <c r="Q19" t="s">
+        <v>203</v>
+      </c>
+      <c r="R19" t="s">
         <v>204</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>205</v>
-      </c>
-      <c r="S19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -5495,25 +5492,25 @@
         <v>75</v>
       </c>
       <c r="D20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" t="s">
         <v>207</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>208</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>209</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>210</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>211</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>212</v>
-      </c>
-      <c r="J20" t="s">
-        <v>213</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -5528,19 +5525,19 @@
         <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P20">
         <v>901</v>
       </c>
       <c r="Q20" t="s">
+        <v>214</v>
+      </c>
+      <c r="R20" t="s">
         <v>215</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>216</v>
-      </c>
-      <c r="S20" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -5554,25 +5551,25 @@
         <v>86</v>
       </c>
       <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" t="s">
         <v>218</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>219</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>220</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>221</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>222</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>223</v>
-      </c>
-      <c r="J21" t="s">
-        <v>224</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -5587,19 +5584,19 @@
         <v>55</v>
       </c>
       <c r="O21" t="s">
+        <v>224</v>
+      </c>
+      <c r="P21" t="s">
         <v>225</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>226</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>227</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>228</v>
-      </c>
-      <c r="S21" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -5613,25 +5610,25 @@
         <v>97</v>
       </c>
       <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
         <v>230</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>231</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>232</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>233</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>234</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>235</v>
-      </c>
-      <c r="J22" t="s">
-        <v>236</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -5646,19 +5643,19 @@
         <v>58</v>
       </c>
       <c r="O22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22">
         <v>396</v>
       </c>
       <c r="Q22" t="s">
+        <v>237</v>
+      </c>
+      <c r="R22" t="s">
         <v>238</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>239</v>
-      </c>
-      <c r="S22" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -5669,28 +5666,28 @@
         <v>2013</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E23" t="s">
         <v>241</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>242</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>243</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>244</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>245</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>246</v>
-      </c>
-      <c r="J23" t="s">
-        <v>247</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -5711,13 +5708,13 @@
         <v>461</v>
       </c>
       <c r="Q23" t="s">
+        <v>247</v>
+      </c>
+      <c r="R23" t="s">
         <v>248</v>
       </c>
-      <c r="R23" t="s">
+      <c r="S23" t="s">
         <v>249</v>
-      </c>
-      <c r="S23" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -5728,28 +5725,28 @@
         <v>2013</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" t="s">
         <v>251</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>252</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>253</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>254</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>255</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>256</v>
-      </c>
-      <c r="J24" t="s">
-        <v>257</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -5770,13 +5767,13 @@
         <v>190</v>
       </c>
       <c r="Q24" t="s">
+        <v>257</v>
+      </c>
+      <c r="R24" t="s">
         <v>258</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>259</v>
-      </c>
-      <c r="S24" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -5787,28 +5784,28 @@
         <v>2013</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
+        <v>260</v>
+      </c>
+      <c r="E25" t="s">
         <v>261</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>262</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>263</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>264</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>265</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>266</v>
-      </c>
-      <c r="J25" t="s">
-        <v>267</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -5829,13 +5826,13 @@
         <v>181</v>
       </c>
       <c r="Q25" t="s">
+        <v>267</v>
+      </c>
+      <c r="R25" t="s">
         <v>268</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>269</v>
-      </c>
-      <c r="S25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -5846,28 +5843,28 @@
         <v>2013</v>
       </c>
       <c r="C26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
         <v>271</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>272</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>273</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>274</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>275</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>276</v>
-      </c>
-      <c r="J26" t="s">
-        <v>277</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -5888,13 +5885,13 @@
         <v>122</v>
       </c>
       <c r="Q26" t="s">
+        <v>277</v>
+      </c>
+      <c r="R26" t="s">
         <v>278</v>
       </c>
-      <c r="R26" t="s">
+      <c r="S26" t="s">
         <v>279</v>
-      </c>
-      <c r="S26" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -5908,25 +5905,25 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" t="s">
         <v>281</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>282</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>283</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>284</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>285</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>286</v>
-      </c>
-      <c r="J27" t="s">
-        <v>287</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -5947,13 +5944,13 @@
         <v>250</v>
       </c>
       <c r="Q27" t="s">
+        <v>287</v>
+      </c>
+      <c r="R27" t="s">
         <v>288</v>
       </c>
-      <c r="R27" t="s">
+      <c r="S27" t="s">
         <v>289</v>
-      </c>
-      <c r="S27" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -5967,25 +5964,25 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
+        <v>290</v>
+      </c>
+      <c r="E28" t="s">
         <v>291</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>292</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>293</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>294</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>295</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>296</v>
-      </c>
-      <c r="J28" t="s">
-        <v>297</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -6006,13 +6003,13 @@
         <v>162</v>
       </c>
       <c r="Q28" t="s">
+        <v>297</v>
+      </c>
+      <c r="R28" t="s">
         <v>298</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>299</v>
-      </c>
-      <c r="S28" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -6026,25 +6023,25 @@
         <v>42</v>
       </c>
       <c r="D29" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" t="s">
         <v>301</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>302</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>303</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>304</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>305</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>306</v>
-      </c>
-      <c r="J29" t="s">
-        <v>307</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -6065,13 +6062,13 @@
         <v>239</v>
       </c>
       <c r="Q29" t="s">
+        <v>307</v>
+      </c>
+      <c r="R29" t="s">
         <v>308</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>309</v>
-      </c>
-      <c r="S29" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -6085,25 +6082,25 @@
         <v>53</v>
       </c>
       <c r="D30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" t="s">
         <v>311</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>312</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>313</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>314</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>315</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>316</v>
-      </c>
-      <c r="J30" t="s">
-        <v>317</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -6127,10 +6124,10 @@
         <v>903</v>
       </c>
       <c r="R30" t="s">
+        <v>317</v>
+      </c>
+      <c r="S30" t="s">
         <v>318</v>
-      </c>
-      <c r="S30" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -6147,22 +6144,22 @@
         <v>79</v>
       </c>
       <c r="E31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F31" t="s">
         <v>320</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>321</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>322</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>323</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>324</v>
-      </c>
-      <c r="J31" t="s">
-        <v>325</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -6189,7 +6186,7 @@
         <v>953</v>
       </c>
       <c r="S31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -6203,25 +6200,25 @@
         <v>75</v>
       </c>
       <c r="D32" t="s">
+        <v>326</v>
+      </c>
+      <c r="E32" t="s">
         <v>327</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>328</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>329</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>330</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>331</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>332</v>
-      </c>
-      <c r="J32" t="s">
-        <v>333</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -6245,10 +6242,10 @@
         <v>886</v>
       </c>
       <c r="R32" t="s">
+        <v>333</v>
+      </c>
+      <c r="S32" t="s">
         <v>334</v>
-      </c>
-      <c r="S32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -6262,25 +6259,25 @@
         <v>86</v>
       </c>
       <c r="D33" t="s">
+        <v>335</v>
+      </c>
+      <c r="E33" t="s">
         <v>336</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>337</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>338</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>339</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>340</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>341</v>
-      </c>
-      <c r="J33" t="s">
-        <v>342</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -6304,10 +6301,10 @@
         <v>925</v>
       </c>
       <c r="R33" t="s">
+        <v>342</v>
+      </c>
+      <c r="S33" t="s">
         <v>343</v>
-      </c>
-      <c r="S33" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -6321,25 +6318,25 @@
         <v>97</v>
       </c>
       <c r="D34" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" t="s">
         <v>345</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>346</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>347</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>348</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>349</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>350</v>
-      </c>
-      <c r="J34" t="s">
-        <v>351</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -6363,10 +6360,10 @@
         <v>801</v>
       </c>
       <c r="R34" t="s">
+        <v>351</v>
+      </c>
+      <c r="S34" t="s">
         <v>352</v>
-      </c>
-      <c r="S34" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -6377,28 +6374,28 @@
         <v>2014</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D35" t="s">
+        <v>353</v>
+      </c>
+      <c r="E35" t="s">
         <v>354</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>355</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>356</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>357</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>358</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>359</v>
-      </c>
-      <c r="J35" t="s">
-        <v>360</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -6419,13 +6416,13 @@
         <v>316</v>
       </c>
       <c r="Q35" t="s">
+        <v>360</v>
+      </c>
+      <c r="R35" t="s">
         <v>361</v>
       </c>
-      <c r="R35" t="s">
+      <c r="S35" t="s">
         <v>362</v>
-      </c>
-      <c r="S35" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -6436,28 +6433,28 @@
         <v>2014</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
+        <v>363</v>
+      </c>
+      <c r="E36" t="s">
         <v>364</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>365</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>366</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>367</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>368</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>369</v>
-      </c>
-      <c r="J36" t="s">
-        <v>370</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6478,13 +6475,13 @@
         <v>305</v>
       </c>
       <c r="Q36" t="s">
+        <v>370</v>
+      </c>
+      <c r="R36" t="s">
         <v>371</v>
       </c>
-      <c r="R36" t="s">
+      <c r="S36" t="s">
         <v>372</v>
-      </c>
-      <c r="S36" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -6495,28 +6492,28 @@
         <v>2014</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
+        <v>373</v>
+      </c>
+      <c r="E37" t="s">
         <v>374</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>375</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>376</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>377</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>378</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>379</v>
-      </c>
-      <c r="J37" t="s">
-        <v>380</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -6537,13 +6534,13 @@
         <v>265</v>
       </c>
       <c r="Q37" t="s">
+        <v>380</v>
+      </c>
+      <c r="R37" t="s">
         <v>381</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>382</v>
-      </c>
-      <c r="S37" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -6554,28 +6551,28 @@
         <v>2014</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" t="s">
+        <v>383</v>
+      </c>
+      <c r="E38" t="s">
         <v>384</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>385</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>386</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>387</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>388</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>389</v>
-      </c>
-      <c r="J38" t="s">
-        <v>390</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -6596,13 +6593,13 @@
         <v>362</v>
       </c>
       <c r="Q38" t="s">
+        <v>390</v>
+      </c>
+      <c r="R38" t="s">
         <v>391</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>392</v>
-      </c>
-      <c r="S38" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -6616,25 +6613,25 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
+        <v>393</v>
+      </c>
+      <c r="E39" t="s">
         <v>394</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>395</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>396</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>397</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>398</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>399</v>
-      </c>
-      <c r="J39" t="s">
-        <v>400</v>
       </c>
       <c r="K39">
         <v>765</v>
@@ -6655,13 +6652,13 @@
         <v>389</v>
       </c>
       <c r="Q39" t="s">
+        <v>400</v>
+      </c>
+      <c r="R39" t="s">
         <v>401</v>
       </c>
-      <c r="R39" t="s">
+      <c r="S39" t="s">
         <v>402</v>
-      </c>
-      <c r="S39" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -6675,25 +6672,25 @@
         <v>30</v>
       </c>
       <c r="D40" t="s">
+        <v>403</v>
+      </c>
+      <c r="E40" t="s">
         <v>404</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>405</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>406</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>407</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>408</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>409</v>
-      </c>
-      <c r="J40" t="s">
-        <v>410</v>
       </c>
       <c r="K40">
         <v>807</v>
@@ -6714,13 +6711,13 @@
         <v>376</v>
       </c>
       <c r="Q40" t="s">
+        <v>410</v>
+      </c>
+      <c r="R40" t="s">
         <v>411</v>
       </c>
-      <c r="R40" t="s">
+      <c r="S40" t="s">
         <v>412</v>
-      </c>
-      <c r="S40" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -6734,25 +6731,25 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
+        <v>413</v>
+      </c>
+      <c r="E41" t="s">
         <v>414</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>415</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>416</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>417</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>418</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>419</v>
-      </c>
-      <c r="J41" t="s">
-        <v>420</v>
       </c>
       <c r="K41">
         <v>878</v>
@@ -6773,13 +6770,13 @@
         <v>398</v>
       </c>
       <c r="Q41" t="s">
+        <v>420</v>
+      </c>
+      <c r="R41" t="s">
         <v>421</v>
       </c>
-      <c r="R41" t="s">
+      <c r="S41" t="s">
         <v>422</v>
-      </c>
-      <c r="S41" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -6793,25 +6790,25 @@
         <v>53</v>
       </c>
       <c r="D42" t="s">
+        <v>423</v>
+      </c>
+      <c r="E42" t="s">
         <v>424</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>425</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>426</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>427</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>428</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>429</v>
-      </c>
-      <c r="J42" t="s">
-        <v>430</v>
       </c>
       <c r="K42">
         <v>658</v>
@@ -6832,13 +6829,13 @@
         <v>283</v>
       </c>
       <c r="Q42" t="s">
+        <v>430</v>
+      </c>
+      <c r="R42" t="s">
         <v>431</v>
       </c>
-      <c r="R42" t="s">
+      <c r="S42" t="s">
         <v>432</v>
-      </c>
-      <c r="S42" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -6852,25 +6849,25 @@
         <v>64</v>
       </c>
       <c r="D43" t="s">
+        <v>433</v>
+      </c>
+      <c r="E43" t="s">
         <v>434</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>435</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>436</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>437</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>438</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>439</v>
-      </c>
-      <c r="J43" t="s">
-        <v>440</v>
       </c>
       <c r="K43">
         <v>817</v>
@@ -6891,13 +6888,13 @@
         <v>299</v>
       </c>
       <c r="Q43" t="s">
+        <v>440</v>
+      </c>
+      <c r="R43" t="s">
         <v>441</v>
       </c>
-      <c r="R43" t="s">
+      <c r="S43" t="s">
         <v>442</v>
-      </c>
-      <c r="S43" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -6911,25 +6908,25 @@
         <v>75</v>
       </c>
       <c r="D44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E44" t="s">
         <v>444</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>445</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>446</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>447</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>448</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>449</v>
-      </c>
-      <c r="J44" t="s">
-        <v>450</v>
       </c>
       <c r="K44">
         <v>870</v>
@@ -6950,13 +6947,13 @@
         <v>323</v>
       </c>
       <c r="Q44" t="s">
+        <v>450</v>
+      </c>
+      <c r="R44" t="s">
         <v>451</v>
       </c>
-      <c r="R44" t="s">
+      <c r="S44" t="s">
         <v>452</v>
-      </c>
-      <c r="S44" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -6970,25 +6967,25 @@
         <v>86</v>
       </c>
       <c r="D45" t="s">
+        <v>453</v>
+      </c>
+      <c r="E45" t="s">
         <v>454</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>455</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>456</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>457</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>458</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>459</v>
-      </c>
-      <c r="J45" t="s">
-        <v>460</v>
       </c>
       <c r="K45">
         <v>831</v>
@@ -7009,13 +7006,13 @@
         <v>307</v>
       </c>
       <c r="Q45" t="s">
+        <v>460</v>
+      </c>
+      <c r="R45" t="s">
         <v>461</v>
       </c>
-      <c r="R45" t="s">
+      <c r="S45" t="s">
         <v>462</v>
-      </c>
-      <c r="S45" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -7029,25 +7026,25 @@
         <v>97</v>
       </c>
       <c r="D46" t="s">
+        <v>463</v>
+      </c>
+      <c r="E46" t="s">
         <v>464</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>465</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>466</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>467</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>468</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>469</v>
-      </c>
-      <c r="J46" t="s">
-        <v>470</v>
       </c>
       <c r="K46">
         <v>656</v>
@@ -7068,13 +7065,13 @@
         <v>225</v>
       </c>
       <c r="Q46" t="s">
+        <v>470</v>
+      </c>
+      <c r="R46" t="s">
         <v>471</v>
       </c>
-      <c r="R46" t="s">
+      <c r="S46" t="s">
         <v>472</v>
-      </c>
-      <c r="S46" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -7085,28 +7082,28 @@
         <v>2015</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D47" t="s">
+        <v>473</v>
+      </c>
+      <c r="E47" t="s">
         <v>474</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>475</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>476</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>477</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>478</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>479</v>
-      </c>
-      <c r="J47" t="s">
-        <v>480</v>
       </c>
       <c r="K47">
         <v>704</v>
@@ -7127,13 +7124,13 @@
         <v>194</v>
       </c>
       <c r="Q47" t="s">
+        <v>480</v>
+      </c>
+      <c r="R47" t="s">
         <v>481</v>
       </c>
-      <c r="R47" t="s">
+      <c r="S47" t="s">
         <v>482</v>
-      </c>
-      <c r="S47" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -7144,28 +7141,28 @@
         <v>2015</v>
       </c>
       <c r="C48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
+        <v>483</v>
+      </c>
+      <c r="E48" t="s">
         <v>484</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>485</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>486</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>487</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>488</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>489</v>
-      </c>
-      <c r="J48" t="s">
-        <v>490</v>
       </c>
       <c r="K48">
         <v>408</v>
@@ -7186,13 +7183,13 @@
         <v>296</v>
       </c>
       <c r="Q48" t="s">
+        <v>490</v>
+      </c>
+      <c r="R48" t="s">
         <v>491</v>
       </c>
-      <c r="R48" t="s">
+      <c r="S48" t="s">
         <v>492</v>
-      </c>
-      <c r="S48" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -7203,28 +7200,28 @@
         <v>2015</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D49" t="s">
+        <v>493</v>
+      </c>
+      <c r="E49" t="s">
         <v>494</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>495</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>496</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>497</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>498</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>499</v>
-      </c>
-      <c r="J49" t="s">
-        <v>500</v>
       </c>
       <c r="K49">
         <v>320</v>
@@ -7245,13 +7242,13 @@
         <v>237</v>
       </c>
       <c r="Q49" t="s">
+        <v>500</v>
+      </c>
+      <c r="R49" t="s">
         <v>501</v>
       </c>
-      <c r="R49" t="s">
+      <c r="S49" t="s">
         <v>502</v>
-      </c>
-      <c r="S49" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -7262,28 +7259,28 @@
         <v>2015</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
+        <v>503</v>
+      </c>
+      <c r="E50" t="s">
         <v>504</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>505</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>506</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>507</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>508</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>509</v>
-      </c>
-      <c r="J50" t="s">
-        <v>510</v>
       </c>
       <c r="K50">
         <v>304</v>
@@ -7304,13 +7301,13 @@
         <v>163</v>
       </c>
       <c r="Q50" t="s">
+        <v>510</v>
+      </c>
+      <c r="R50" t="s">
         <v>511</v>
       </c>
-      <c r="R50" t="s">
+      <c r="S50" t="s">
         <v>512</v>
-      </c>
-      <c r="S50" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -7324,25 +7321,25 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
+        <v>513</v>
+      </c>
+      <c r="E51" t="s">
         <v>514</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>515</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>516</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>517</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>518</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>519</v>
-      </c>
-      <c r="J51" t="s">
-        <v>520</v>
       </c>
       <c r="K51">
         <v>256</v>
@@ -7363,13 +7360,13 @@
         <v>114</v>
       </c>
       <c r="Q51" t="s">
+        <v>520</v>
+      </c>
+      <c r="R51" t="s">
         <v>521</v>
       </c>
-      <c r="R51" t="s">
+      <c r="S51" t="s">
         <v>522</v>
-      </c>
-      <c r="S51" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -7383,25 +7380,25 @@
         <v>30</v>
       </c>
       <c r="D52" t="s">
+        <v>523</v>
+      </c>
+      <c r="E52" t="s">
         <v>524</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>525</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>526</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>527</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>528</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>529</v>
-      </c>
-      <c r="J52" t="s">
-        <v>530</v>
       </c>
       <c r="K52">
         <v>348</v>
@@ -7422,13 +7419,13 @@
         <v>139</v>
       </c>
       <c r="Q52" t="s">
+        <v>530</v>
+      </c>
+      <c r="R52" t="s">
         <v>531</v>
       </c>
-      <c r="R52" t="s">
+      <c r="S52" t="s">
         <v>532</v>
-      </c>
-      <c r="S52" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -7442,25 +7439,25 @@
         <v>42</v>
       </c>
       <c r="D53" t="s">
+        <v>533</v>
+      </c>
+      <c r="E53" t="s">
         <v>534</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>535</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>536</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>537</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>538</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>539</v>
-      </c>
-      <c r="J53" t="s">
-        <v>540</v>
       </c>
       <c r="K53">
         <v>450</v>
@@ -7481,13 +7478,13 @@
         <v>244</v>
       </c>
       <c r="Q53" t="s">
+        <v>540</v>
+      </c>
+      <c r="R53" t="s">
         <v>541</v>
       </c>
-      <c r="R53" t="s">
+      <c r="S53" t="s">
         <v>542</v>
-      </c>
-      <c r="S53" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -7501,25 +7498,25 @@
         <v>53</v>
       </c>
       <c r="D54" t="s">
+        <v>543</v>
+      </c>
+      <c r="E54" t="s">
         <v>544</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>545</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>546</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>547</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>548</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>549</v>
-      </c>
-      <c r="J54" t="s">
-        <v>550</v>
       </c>
       <c r="K54">
         <v>348</v>
@@ -7540,13 +7537,13 @@
         <v>101</v>
       </c>
       <c r="Q54" t="s">
+        <v>550</v>
+      </c>
+      <c r="R54" t="s">
         <v>551</v>
       </c>
-      <c r="R54" t="s">
+      <c r="S54" t="s">
         <v>552</v>
-      </c>
-      <c r="S54" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -7560,25 +7557,25 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
+        <v>553</v>
+      </c>
+      <c r="E55" t="s">
         <v>554</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>555</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>556</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>557</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>558</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>559</v>
-      </c>
-      <c r="J55" t="s">
-        <v>560</v>
       </c>
       <c r="K55">
         <v>471</v>
@@ -7599,13 +7596,13 @@
         <v>180</v>
       </c>
       <c r="Q55" t="s">
+        <v>560</v>
+      </c>
+      <c r="R55" t="s">
         <v>561</v>
       </c>
-      <c r="R55" t="s">
+      <c r="S55" t="s">
         <v>562</v>
-      </c>
-      <c r="S55" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -7619,25 +7616,25 @@
         <v>75</v>
       </c>
       <c r="D56" t="s">
+        <v>563</v>
+      </c>
+      <c r="E56" t="s">
         <v>564</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>565</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>566</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>567</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>568</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>569</v>
-      </c>
-      <c r="J56" t="s">
-        <v>570</v>
       </c>
       <c r="K56">
         <v>508</v>
@@ -7658,13 +7655,13 @@
         <v>343</v>
       </c>
       <c r="Q56" t="s">
+        <v>570</v>
+      </c>
+      <c r="R56" t="s">
         <v>571</v>
       </c>
-      <c r="R56" t="s">
+      <c r="S56" t="s">
         <v>572</v>
-      </c>
-      <c r="S56" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -7678,25 +7675,25 @@
         <v>86</v>
       </c>
       <c r="D57" t="s">
+        <v>573</v>
+      </c>
+      <c r="E57" t="s">
         <v>574</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>575</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>576</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>577</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>578</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>579</v>
-      </c>
-      <c r="J57" t="s">
-        <v>580</v>
       </c>
       <c r="K57">
         <v>621</v>
@@ -7717,13 +7714,13 @@
         <v>292</v>
       </c>
       <c r="Q57" t="s">
+        <v>580</v>
+      </c>
+      <c r="R57" t="s">
         <v>581</v>
       </c>
-      <c r="R57" t="s">
+      <c r="S57" t="s">
         <v>582</v>
-      </c>
-      <c r="S57" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -7737,25 +7734,25 @@
         <v>97</v>
       </c>
       <c r="D58" t="s">
+        <v>583</v>
+      </c>
+      <c r="E58" t="s">
         <v>584</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>585</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>586</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>587</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>588</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>589</v>
-      </c>
-      <c r="J58" t="s">
-        <v>590</v>
       </c>
       <c r="K58">
         <v>696</v>
@@ -7776,13 +7773,13 @@
         <v>225</v>
       </c>
       <c r="Q58" t="s">
+        <v>590</v>
+      </c>
+      <c r="R58" t="s">
         <v>591</v>
       </c>
-      <c r="R58" t="s">
+      <c r="S58" t="s">
         <v>592</v>
-      </c>
-      <c r="S58" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -7793,28 +7790,28 @@
         <v>2016</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D59" t="s">
+        <v>593</v>
+      </c>
+      <c r="E59" t="s">
         <v>594</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>595</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>596</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>597</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>598</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>599</v>
-      </c>
-      <c r="J59" t="s">
-        <v>600</v>
       </c>
       <c r="K59">
         <v>653</v>
@@ -7835,13 +7832,13 @@
         <v>318</v>
       </c>
       <c r="Q59" t="s">
+        <v>600</v>
+      </c>
+      <c r="R59" t="s">
         <v>601</v>
       </c>
-      <c r="R59" t="s">
+      <c r="S59" t="s">
         <v>602</v>
-      </c>
-      <c r="S59" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -7852,28 +7849,28 @@
         <v>2016</v>
       </c>
       <c r="C60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
+        <v>603</v>
+      </c>
+      <c r="E60" t="s">
         <v>604</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>605</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>606</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>607</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>608</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>609</v>
-      </c>
-      <c r="J60" t="s">
-        <v>610</v>
       </c>
       <c r="K60">
         <v>683</v>
@@ -7894,13 +7891,13 @@
         <v>285</v>
       </c>
       <c r="Q60" t="s">
+        <v>610</v>
+      </c>
+      <c r="R60" t="s">
         <v>611</v>
       </c>
-      <c r="R60" t="s">
+      <c r="S60" t="s">
         <v>612</v>
-      </c>
-      <c r="S60" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -7911,28 +7908,28 @@
         <v>2016</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
+        <v>613</v>
+      </c>
+      <c r="E61" t="s">
         <v>614</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>615</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>616</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>617</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>618</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>619</v>
-      </c>
-      <c r="J61" t="s">
-        <v>620</v>
       </c>
       <c r="K61">
         <v>916</v>
@@ -7953,13 +7950,13 @@
         <v>221</v>
       </c>
       <c r="Q61" t="s">
+        <v>620</v>
+      </c>
+      <c r="R61" t="s">
         <v>621</v>
       </c>
-      <c r="R61" t="s">
+      <c r="S61" t="s">
         <v>622</v>
-      </c>
-      <c r="S61" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -7970,28 +7967,28 @@
         <v>2016</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
+        <v>623</v>
+      </c>
+      <c r="E62" t="s">
         <v>624</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>625</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>626</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>627</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>628</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>629</v>
-      </c>
-      <c r="J62" t="s">
-        <v>630</v>
       </c>
       <c r="K62">
         <v>822</v>
@@ -8012,13 +8009,13 @@
         <v>172</v>
       </c>
       <c r="Q62" t="s">
+        <v>630</v>
+      </c>
+      <c r="R62" t="s">
         <v>631</v>
       </c>
-      <c r="R62" t="s">
+      <c r="S62" t="s">
         <v>632</v>
-      </c>
-      <c r="S62" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -8032,25 +8029,25 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
+        <v>633</v>
+      </c>
+      <c r="E63" t="s">
         <v>634</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>635</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>636</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>637</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>638</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>639</v>
-      </c>
-      <c r="J63" t="s">
-        <v>640</v>
       </c>
       <c r="K63">
         <v>617</v>
@@ -8071,13 +8068,13 @@
         <v>235</v>
       </c>
       <c r="Q63" t="s">
+        <v>640</v>
+      </c>
+      <c r="R63" t="s">
         <v>641</v>
       </c>
-      <c r="R63" t="s">
+      <c r="S63" t="s">
         <v>642</v>
-      </c>
-      <c r="S63" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -8091,25 +8088,25 @@
         <v>30</v>
       </c>
       <c r="D64" t="s">
+        <v>643</v>
+      </c>
+      <c r="E64" t="s">
         <v>644</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>645</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>646</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>647</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>648</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>649</v>
-      </c>
-      <c r="J64" t="s">
-        <v>650</v>
       </c>
       <c r="K64">
         <v>670</v>
@@ -8130,13 +8127,13 @@
         <v>479</v>
       </c>
       <c r="Q64" t="s">
+        <v>650</v>
+      </c>
+      <c r="R64" t="s">
         <v>651</v>
       </c>
-      <c r="R64" t="s">
+      <c r="S64" t="s">
         <v>652</v>
-      </c>
-      <c r="S64" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.3">
@@ -8150,25 +8147,25 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
+        <v>653</v>
+      </c>
+      <c r="E65" t="s">
         <v>654</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>655</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>656</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>657</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>658</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>659</v>
-      </c>
-      <c r="J65" t="s">
-        <v>660</v>
       </c>
       <c r="K65">
         <v>823</v>
@@ -8189,13 +8186,13 @@
         <v>284</v>
       </c>
       <c r="Q65" t="s">
+        <v>660</v>
+      </c>
+      <c r="R65" t="s">
         <v>661</v>
       </c>
-      <c r="R65" t="s">
+      <c r="S65" t="s">
         <v>662</v>
-      </c>
-      <c r="S65" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.3">
@@ -8209,25 +8206,25 @@
         <v>53</v>
       </c>
       <c r="D66" t="s">
+        <v>663</v>
+      </c>
+      <c r="E66" t="s">
         <v>664</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>665</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>666</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>667</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>668</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>669</v>
-      </c>
-      <c r="J66" t="s">
-        <v>670</v>
       </c>
       <c r="K66">
         <v>522</v>
@@ -8248,13 +8245,13 @@
         <v>213</v>
       </c>
       <c r="Q66" t="s">
+        <v>670</v>
+      </c>
+      <c r="R66" t="s">
+        <v>288</v>
+      </c>
+      <c r="S66" t="s">
         <v>671</v>
-      </c>
-      <c r="R66" t="s">
-        <v>289</v>
-      </c>
-      <c r="S66" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.3">
@@ -8268,25 +8265,25 @@
         <v>64</v>
       </c>
       <c r="D67" t="s">
+        <v>672</v>
+      </c>
+      <c r="E67" t="s">
         <v>673</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>674</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>675</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>676</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>677</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>678</v>
-      </c>
-      <c r="J67" t="s">
-        <v>679</v>
       </c>
       <c r="K67">
         <v>779</v>
@@ -8307,13 +8304,13 @@
         <v>326</v>
       </c>
       <c r="Q67" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="R67" t="s">
+        <v>679</v>
+      </c>
+      <c r="S67" t="s">
         <v>680</v>
-      </c>
-      <c r="S67" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.3">
@@ -8327,25 +8324,25 @@
         <v>75</v>
       </c>
       <c r="D68" t="s">
+        <v>681</v>
+      </c>
+      <c r="E68" t="s">
         <v>682</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>683</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>684</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>685</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>686</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>687</v>
-      </c>
-      <c r="J68" t="s">
-        <v>688</v>
       </c>
       <c r="K68">
         <v>823</v>
@@ -8366,13 +8363,13 @@
         <v>391</v>
       </c>
       <c r="Q68" t="s">
+        <v>688</v>
+      </c>
+      <c r="R68" t="s">
         <v>689</v>
       </c>
-      <c r="R68" t="s">
+      <c r="S68" t="s">
         <v>690</v>
-      </c>
-      <c r="S68" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.3">
@@ -8386,25 +8383,25 @@
         <v>86</v>
       </c>
       <c r="D69" t="s">
+        <v>691</v>
+      </c>
+      <c r="E69" t="s">
         <v>692</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>693</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>694</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>695</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>696</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>697</v>
-      </c>
-      <c r="J69" t="s">
-        <v>698</v>
       </c>
       <c r="K69">
         <v>792</v>
@@ -8425,13 +8422,13 @@
         <v>310</v>
       </c>
       <c r="Q69" t="s">
+        <v>698</v>
+      </c>
+      <c r="R69" t="s">
         <v>699</v>
       </c>
-      <c r="R69" t="s">
+      <c r="S69" t="s">
         <v>700</v>
-      </c>
-      <c r="S69" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.3">
@@ -8445,25 +8442,25 @@
         <v>97</v>
       </c>
       <c r="D70" t="s">
+        <v>701</v>
+      </c>
+      <c r="E70" t="s">
         <v>702</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>703</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>704</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>705</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>706</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>707</v>
-      </c>
-      <c r="J70" t="s">
-        <v>708</v>
       </c>
       <c r="K70">
         <v>943</v>
@@ -8484,13 +8481,13 @@
         <v>319</v>
       </c>
       <c r="Q70" t="s">
+        <v>708</v>
+      </c>
+      <c r="R70" t="s">
         <v>709</v>
       </c>
-      <c r="R70" t="s">
+      <c r="S70" t="s">
         <v>710</v>
-      </c>
-      <c r="S70" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.3">
@@ -8501,28 +8498,28 @@
         <v>2017</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D71" t="s">
+        <v>711</v>
+      </c>
+      <c r="E71" t="s">
         <v>712</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>713</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>714</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>715</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>716</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>717</v>
-      </c>
-      <c r="J71" t="s">
-        <v>718</v>
       </c>
       <c r="K71">
         <v>720</v>
@@ -8543,13 +8540,13 @@
         <v>322</v>
       </c>
       <c r="Q71" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R71" t="s">
+        <v>718</v>
+      </c>
+      <c r="S71" t="s">
         <v>719</v>
-      </c>
-      <c r="S71" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.3">
@@ -8560,28 +8557,28 @@
         <v>2017</v>
       </c>
       <c r="C72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
+        <v>720</v>
+      </c>
+      <c r="E72" t="s">
         <v>721</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>722</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>723</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>724</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>725</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>726</v>
-      </c>
-      <c r="J72" t="s">
-        <v>727</v>
       </c>
       <c r="K72">
         <v>584</v>
@@ -8602,13 +8599,13 @@
         <v>152</v>
       </c>
       <c r="Q72" t="s">
+        <v>727</v>
+      </c>
+      <c r="R72" t="s">
         <v>728</v>
       </c>
-      <c r="R72" t="s">
+      <c r="S72" t="s">
         <v>729</v>
-      </c>
-      <c r="S72" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.3">
@@ -8619,28 +8616,28 @@
         <v>2017</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D73" t="s">
+        <v>730</v>
+      </c>
+      <c r="E73" t="s">
         <v>731</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>732</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>733</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>734</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>735</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>736</v>
-      </c>
-      <c r="J73" t="s">
-        <v>737</v>
       </c>
       <c r="K73">
         <v>640</v>
@@ -8661,13 +8658,13 @@
         <v>160</v>
       </c>
       <c r="Q73" t="s">
+        <v>737</v>
+      </c>
+      <c r="R73" t="s">
         <v>738</v>
       </c>
-      <c r="R73" t="s">
+      <c r="S73" t="s">
         <v>739</v>
-      </c>
-      <c r="S73" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.3">
@@ -8678,28 +8675,28 @@
         <v>2017</v>
       </c>
       <c r="C74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D74" t="s">
+        <v>740</v>
+      </c>
+      <c r="E74" t="s">
         <v>741</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>742</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>743</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>744</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>745</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>746</v>
-      </c>
-      <c r="J74" t="s">
-        <v>747</v>
       </c>
       <c r="K74">
         <v>434</v>
@@ -8720,13 +8717,13 @@
         <v>195</v>
       </c>
       <c r="Q74" t="s">
+        <v>747</v>
+      </c>
+      <c r="R74" t="s">
         <v>748</v>
       </c>
-      <c r="R74" t="s">
+      <c r="S74" t="s">
         <v>749</v>
-      </c>
-      <c r="S74" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.3">
@@ -8740,25 +8737,25 @@
         <v>19</v>
       </c>
       <c r="D75" t="s">
+        <v>750</v>
+      </c>
+      <c r="E75" t="s">
         <v>751</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>752</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>753</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>754</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>755</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>756</v>
-      </c>
-      <c r="J75" t="s">
-        <v>757</v>
       </c>
       <c r="K75">
         <v>475</v>
@@ -8779,13 +8776,13 @@
         <v>268</v>
       </c>
       <c r="Q75" t="s">
+        <v>757</v>
+      </c>
+      <c r="R75" t="s">
         <v>758</v>
       </c>
-      <c r="R75" t="s">
+      <c r="S75" t="s">
         <v>759</v>
-      </c>
-      <c r="S75" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.3">
@@ -8799,25 +8796,25 @@
         <v>30</v>
       </c>
       <c r="D76" t="s">
+        <v>760</v>
+      </c>
+      <c r="E76" t="s">
         <v>761</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>762</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>763</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>764</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>765</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>766</v>
-      </c>
-      <c r="J76" t="s">
-        <v>767</v>
       </c>
       <c r="K76">
         <v>504</v>
@@ -8838,13 +8835,13 @@
         <v>151</v>
       </c>
       <c r="Q76" t="s">
+        <v>767</v>
+      </c>
+      <c r="R76" t="s">
         <v>768</v>
       </c>
-      <c r="R76" t="s">
+      <c r="S76" t="s">
         <v>769</v>
-      </c>
-      <c r="S76" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.3">
@@ -8858,25 +8855,25 @@
         <v>42</v>
       </c>
       <c r="D77" t="s">
+        <v>770</v>
+      </c>
+      <c r="E77" t="s">
         <v>771</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>772</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>773</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>774</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>775</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>776</v>
-      </c>
-      <c r="J77" t="s">
-        <v>777</v>
       </c>
       <c r="K77">
         <v>546</v>
@@ -8897,13 +8894,13 @@
         <v>229</v>
       </c>
       <c r="Q77" t="s">
+        <v>777</v>
+      </c>
+      <c r="R77" t="s">
+        <v>160</v>
+      </c>
+      <c r="S77" t="s">
         <v>778</v>
-      </c>
-      <c r="R77" t="s">
-        <v>161</v>
-      </c>
-      <c r="S77" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.3">
@@ -8917,25 +8914,25 @@
         <v>53</v>
       </c>
       <c r="D78" t="s">
+        <v>779</v>
+      </c>
+      <c r="E78" t="s">
         <v>780</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>781</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>782</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>783</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>784</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>785</v>
-      </c>
-      <c r="J78" t="s">
-        <v>786</v>
       </c>
       <c r="K78">
         <v>321</v>
@@ -8956,13 +8953,13 @@
         <v>311</v>
       </c>
       <c r="Q78" t="s">
+        <v>786</v>
+      </c>
+      <c r="R78" t="s">
         <v>787</v>
       </c>
-      <c r="R78" t="s">
+      <c r="S78" t="s">
         <v>788</v>
-      </c>
-      <c r="S78" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.3">
@@ -8976,25 +8973,25 @@
         <v>64</v>
       </c>
       <c r="D79" t="s">
+        <v>789</v>
+      </c>
+      <c r="E79" t="s">
         <v>790</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>791</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>792</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>793</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>794</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>795</v>
-      </c>
-      <c r="J79" t="s">
-        <v>796</v>
       </c>
       <c r="K79">
         <v>619</v>
@@ -9015,13 +9012,13 @@
         <v>330</v>
       </c>
       <c r="Q79" t="s">
+        <v>796</v>
+      </c>
+      <c r="R79" t="s">
         <v>797</v>
       </c>
-      <c r="R79" t="s">
+      <c r="S79" t="s">
         <v>798</v>
-      </c>
-      <c r="S79" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.3">
@@ -9035,25 +9032,25 @@
         <v>75</v>
       </c>
       <c r="D80" t="s">
+        <v>799</v>
+      </c>
+      <c r="E80" t="s">
         <v>800</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>801</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>802</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>803</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>804</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>805</v>
-      </c>
-      <c r="J80" t="s">
-        <v>806</v>
       </c>
       <c r="K80">
         <v>606</v>
@@ -9074,13 +9071,13 @@
         <v>260</v>
       </c>
       <c r="Q80" t="s">
+        <v>806</v>
+      </c>
+      <c r="R80" t="s">
         <v>807</v>
       </c>
-      <c r="R80" t="s">
+      <c r="S80" t="s">
         <v>808</v>
-      </c>
-      <c r="S80" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
@@ -9094,25 +9091,25 @@
         <v>86</v>
       </c>
       <c r="D81" t="s">
+        <v>809</v>
+      </c>
+      <c r="E81" t="s">
         <v>810</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>811</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>812</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>813</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>814</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>815</v>
-      </c>
-      <c r="J81" t="s">
-        <v>816</v>
       </c>
       <c r="K81">
         <v>528</v>
@@ -9133,13 +9130,13 @@
         <v>278</v>
       </c>
       <c r="Q81" t="s">
+        <v>816</v>
+      </c>
+      <c r="R81" t="s">
+        <v>581</v>
+      </c>
+      <c r="S81" t="s">
         <v>817</v>
-      </c>
-      <c r="R81" t="s">
-        <v>582</v>
-      </c>
-      <c r="S81" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
@@ -9153,25 +9150,25 @@
         <v>97</v>
       </c>
       <c r="D82" t="s">
+        <v>818</v>
+      </c>
+      <c r="E82" t="s">
         <v>819</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>820</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>821</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>822</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>823</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>824</v>
-      </c>
-      <c r="J82" t="s">
-        <v>825</v>
       </c>
       <c r="K82">
         <v>631</v>
@@ -9192,13 +9189,13 @@
         <v>344</v>
       </c>
       <c r="Q82" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="R82" t="s">
+        <v>825</v>
+      </c>
+      <c r="S82" t="s">
         <v>826</v>
-      </c>
-      <c r="S82" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
@@ -9209,28 +9206,28 @@
         <v>2018</v>
       </c>
       <c r="C83" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D83" t="s">
+        <v>827</v>
+      </c>
+      <c r="E83" t="s">
         <v>828</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>829</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>830</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>831</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>832</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>833</v>
-      </c>
-      <c r="J83" t="s">
-        <v>834</v>
       </c>
       <c r="K83">
         <v>730</v>
@@ -9251,13 +9248,13 @@
         <v>331</v>
       </c>
       <c r="Q83" t="s">
+        <v>834</v>
+      </c>
+      <c r="R83" t="s">
         <v>835</v>
       </c>
-      <c r="R83" t="s">
+      <c r="S83" t="s">
         <v>836</v>
-      </c>
-      <c r="S83" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
@@ -9268,28 +9265,28 @@
         <v>2018</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" t="s">
+        <v>837</v>
+      </c>
+      <c r="E84" t="s">
         <v>838</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>839</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>840</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>841</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>842</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>843</v>
-      </c>
-      <c r="J84" t="s">
-        <v>844</v>
       </c>
       <c r="K84">
         <v>748</v>
@@ -9310,13 +9307,13 @@
         <v>226</v>
       </c>
       <c r="Q84" t="s">
+        <v>844</v>
+      </c>
+      <c r="R84" t="s">
         <v>845</v>
       </c>
-      <c r="R84" t="s">
+      <c r="S84" t="s">
         <v>846</v>
-      </c>
-      <c r="S84" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
@@ -9327,28 +9324,28 @@
         <v>2018</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
+        <v>847</v>
+      </c>
+      <c r="E85" t="s">
         <v>848</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>849</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>850</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>851</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>852</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>853</v>
-      </c>
-      <c r="J85" t="s">
-        <v>854</v>
       </c>
       <c r="K85">
         <v>919</v>
@@ -9369,13 +9366,13 @@
         <v>156</v>
       </c>
       <c r="Q85" t="s">
+        <v>854</v>
+      </c>
+      <c r="R85" t="s">
         <v>855</v>
       </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>856</v>
-      </c>
-      <c r="S85" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
@@ -9386,28 +9383,28 @@
         <v>2018</v>
       </c>
       <c r="C86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D86" t="s">
+        <v>857</v>
+      </c>
+      <c r="E86" t="s">
         <v>858</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>859</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>860</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>861</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>862</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>863</v>
-      </c>
-      <c r="J86" t="s">
-        <v>864</v>
       </c>
       <c r="K86">
         <v>967</v>
@@ -9428,13 +9425,13 @@
         <v>255</v>
       </c>
       <c r="Q86" t="s">
+        <v>864</v>
+      </c>
+      <c r="R86" t="s">
         <v>865</v>
       </c>
-      <c r="R86" t="s">
+      <c r="S86" t="s">
         <v>866</v>
-      </c>
-      <c r="S86" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
@@ -9448,28 +9445,28 @@
         <v>19</v>
       </c>
       <c r="D87" t="s">
+        <v>867</v>
+      </c>
+      <c r="E87" t="s">
         <v>868</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>869</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>870</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>871</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>872</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>873</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>874</v>
-      </c>
-      <c r="K87" t="s">
-        <v>875</v>
       </c>
       <c r="L87">
         <v>32</v>
@@ -9487,13 +9484,13 @@
         <v>290</v>
       </c>
       <c r="Q87" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R87" t="s">
+        <v>875</v>
+      </c>
+      <c r="S87" t="s">
         <v>876</v>
-      </c>
-      <c r="S87" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
@@ -9507,25 +9504,25 @@
         <v>30</v>
       </c>
       <c r="D88" t="s">
+        <v>877</v>
+      </c>
+      <c r="E88" t="s">
         <v>878</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>879</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>880</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>881</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>882</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>883</v>
-      </c>
-      <c r="J88" t="s">
-        <v>884</v>
       </c>
       <c r="K88">
         <v>813</v>
@@ -9546,13 +9543,13 @@
         <v>319</v>
       </c>
       <c r="Q88" t="s">
+        <v>884</v>
+      </c>
+      <c r="R88" t="s">
         <v>885</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>886</v>
-      </c>
-      <c r="S88" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
@@ -9566,25 +9563,25 @@
         <v>42</v>
       </c>
       <c r="D89" t="s">
+        <v>887</v>
+      </c>
+      <c r="E89" t="s">
         <v>888</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>889</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>890</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>891</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>892</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>893</v>
-      </c>
-      <c r="J89" t="s">
-        <v>894</v>
       </c>
       <c r="K89">
         <v>822</v>
@@ -9605,13 +9602,13 @@
         <v>382</v>
       </c>
       <c r="Q89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="R89" t="s">
+        <v>894</v>
+      </c>
+      <c r="S89" t="s">
         <v>895</v>
-      </c>
-      <c r="S89" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
@@ -9625,25 +9622,25 @@
         <v>53</v>
       </c>
       <c r="D90" t="s">
+        <v>896</v>
+      </c>
+      <c r="E90" t="s">
         <v>897</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>898</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>899</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>900</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>901</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>902</v>
-      </c>
-      <c r="J90" t="s">
-        <v>903</v>
       </c>
       <c r="K90">
         <v>442</v>
@@ -9664,13 +9661,13 @@
         <v>320</v>
       </c>
       <c r="Q90" t="s">
+        <v>903</v>
+      </c>
+      <c r="R90" t="s">
         <v>904</v>
       </c>
-      <c r="R90" t="s">
+      <c r="S90" t="s">
         <v>905</v>
-      </c>
-      <c r="S90" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
@@ -9684,25 +9681,25 @@
         <v>64</v>
       </c>
       <c r="D91" t="s">
+        <v>906</v>
+      </c>
+      <c r="E91" t="s">
         <v>907</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>908</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>909</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>910</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>911</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>912</v>
-      </c>
-      <c r="J91" t="s">
-        <v>913</v>
       </c>
       <c r="K91">
         <v>497</v>
@@ -9723,13 +9720,13 @@
         <v>462</v>
       </c>
       <c r="Q91" t="s">
+        <v>913</v>
+      </c>
+      <c r="R91" t="s">
         <v>914</v>
       </c>
-      <c r="R91" t="s">
+      <c r="S91" t="s">
         <v>915</v>
-      </c>
-      <c r="S91" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.3">
@@ -9743,25 +9740,25 @@
         <v>75</v>
       </c>
       <c r="D92" t="s">
+        <v>916</v>
+      </c>
+      <c r="E92" t="s">
         <v>917</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>918</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>919</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>920</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>921</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>922</v>
-      </c>
-      <c r="J92" t="s">
-        <v>923</v>
       </c>
       <c r="K92">
         <v>505</v>
@@ -9782,13 +9779,13 @@
         <v>378</v>
       </c>
       <c r="Q92" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R92" t="s">
+        <v>923</v>
+      </c>
+      <c r="S92" t="s">
         <v>924</v>
-      </c>
-      <c r="S92" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.3">
@@ -9802,25 +9799,25 @@
         <v>86</v>
       </c>
       <c r="D93" t="s">
+        <v>925</v>
+      </c>
+      <c r="E93" t="s">
         <v>926</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>927</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>928</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>929</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>930</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>931</v>
-      </c>
-      <c r="J93" t="s">
-        <v>932</v>
       </c>
       <c r="K93">
         <v>909</v>
@@ -9841,13 +9838,13 @@
         <v>366</v>
       </c>
       <c r="Q93" t="s">
+        <v>932</v>
+      </c>
+      <c r="R93" t="s">
         <v>933</v>
       </c>
-      <c r="R93" t="s">
+      <c r="S93" t="s">
         <v>934</v>
-      </c>
-      <c r="S93" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.3">
@@ -9861,28 +9858,28 @@
         <v>97</v>
       </c>
       <c r="D94" t="s">
+        <v>935</v>
+      </c>
+      <c r="E94" t="s">
         <v>936</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>937</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>938</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>939</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>940</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>941</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>942</v>
-      </c>
-      <c r="K94" t="s">
-        <v>943</v>
       </c>
       <c r="L94">
         <v>3</v>
@@ -9900,13 +9897,13 @@
         <v>425</v>
       </c>
       <c r="Q94" t="s">
+        <v>943</v>
+      </c>
+      <c r="R94" t="s">
         <v>944</v>
       </c>
-      <c r="R94" t="s">
+      <c r="S94" t="s">
         <v>945</v>
-      </c>
-      <c r="S94" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.3">
@@ -9917,28 +9914,28 @@
         <v>2019</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D95" t="s">
+        <v>946</v>
+      </c>
+      <c r="E95" t="s">
         <v>947</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>948</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>949</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>950</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>951</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>952</v>
-      </c>
-      <c r="J95" t="s">
-        <v>953</v>
       </c>
       <c r="K95">
         <v>919</v>
@@ -9959,13 +9956,13 @@
         <v>391</v>
       </c>
       <c r="Q95" t="s">
+        <v>953</v>
+      </c>
+      <c r="R95" t="s">
         <v>954</v>
       </c>
-      <c r="R95" t="s">
+      <c r="S95" t="s">
         <v>955</v>
-      </c>
-      <c r="S95" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.3">
@@ -9976,28 +9973,28 @@
         <v>2019</v>
       </c>
       <c r="C96" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" t="s">
+        <v>956</v>
+      </c>
+      <c r="E96" t="s">
         <v>957</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>958</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>959</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>960</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>961</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>962</v>
-      </c>
-      <c r="J96" t="s">
-        <v>963</v>
       </c>
       <c r="K96">
         <v>853</v>
@@ -10018,13 +10015,13 @@
         <v>306</v>
       </c>
       <c r="Q96" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="R96" t="s">
+        <v>963</v>
+      </c>
+      <c r="S96" t="s">
         <v>964</v>
-      </c>
-      <c r="S96" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.3">
@@ -10035,28 +10032,28 @@
         <v>2019</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" t="s">
+        <v>965</v>
+      </c>
+      <c r="E97" t="s">
         <v>966</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>967</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>968</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>969</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>970</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>971</v>
-      </c>
-      <c r="J97" t="s">
-        <v>972</v>
       </c>
       <c r="K97">
         <v>709</v>
@@ -10077,13 +10074,13 @@
         <v>292</v>
       </c>
       <c r="Q97" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="R97" t="s">
+        <v>972</v>
+      </c>
+      <c r="S97" t="s">
         <v>973</v>
-      </c>
-      <c r="S97" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.3">
@@ -10094,28 +10091,28 @@
         <v>2019</v>
       </c>
       <c r="C98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" t="s">
+        <v>974</v>
+      </c>
+      <c r="E98" t="s">
         <v>975</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>976</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>977</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>978</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>979</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>980</v>
-      </c>
-      <c r="J98" t="s">
-        <v>981</v>
       </c>
       <c r="K98">
         <v>602</v>
@@ -10136,13 +10133,13 @@
         <v>230</v>
       </c>
       <c r="Q98" t="s">
+        <v>981</v>
+      </c>
+      <c r="R98" t="s">
         <v>982</v>
       </c>
-      <c r="R98" t="s">
+      <c r="S98" t="s">
         <v>983</v>
-      </c>
-      <c r="S98" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.3">
@@ -10156,25 +10153,25 @@
         <v>19</v>
       </c>
       <c r="D99" t="s">
+        <v>984</v>
+      </c>
+      <c r="E99" t="s">
         <v>985</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>986</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>987</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>988</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>989</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>990</v>
-      </c>
-      <c r="J99" t="s">
-        <v>991</v>
       </c>
       <c r="K99">
         <v>534</v>
@@ -10195,13 +10192,13 @@
         <v>204</v>
       </c>
       <c r="Q99" t="s">
+        <v>991</v>
+      </c>
+      <c r="R99" t="s">
         <v>992</v>
       </c>
-      <c r="R99" t="s">
+      <c r="S99" t="s">
         <v>993</v>
-      </c>
-      <c r="S99" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.3">
@@ -10215,25 +10212,25 @@
         <v>30</v>
       </c>
       <c r="D100" t="s">
+        <v>994</v>
+      </c>
+      <c r="E100" t="s">
         <v>995</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>996</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>997</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>998</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>999</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>1000</v>
-      </c>
-      <c r="J100" t="s">
-        <v>1001</v>
       </c>
       <c r="K100">
         <v>482</v>
@@ -10254,13 +10251,13 @@
         <v>296</v>
       </c>
       <c r="Q100" t="s">
+        <v>1001</v>
+      </c>
+      <c r="R100" t="s">
+        <v>278</v>
+      </c>
+      <c r="S100" t="s">
         <v>1002</v>
-      </c>
-      <c r="R100" t="s">
-        <v>279</v>
-      </c>
-      <c r="S100" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.3">
@@ -10274,25 +10271,25 @@
         <v>42</v>
       </c>
       <c r="D101" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E101" t="s">
         <v>1004</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>1005</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>1006</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>1007</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>1008</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>1009</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1010</v>
       </c>
       <c r="K101">
         <v>562</v>
@@ -10313,13 +10310,13 @@
         <v>446</v>
       </c>
       <c r="Q101" t="s">
+        <v>1010</v>
+      </c>
+      <c r="R101" t="s">
         <v>1011</v>
       </c>
-      <c r="R101" t="s">
+      <c r="S101" t="s">
         <v>1012</v>
-      </c>
-      <c r="S101" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.3">
@@ -10333,25 +10330,25 @@
         <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E102">
         <v>701</v>
       </c>
       <c r="F102" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G102" t="s">
         <v>1015</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>1016</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>1017</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>1018</v>
-      </c>
-      <c r="J102" t="s">
-        <v>1019</v>
       </c>
       <c r="K102">
         <v>92</v>
@@ -10378,7 +10375,7 @@
         <v>575</v>
       </c>
       <c r="S102" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.3">
@@ -10392,25 +10389,25 @@
         <v>64</v>
       </c>
       <c r="D103" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E103" t="s">
         <v>1021</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>1022</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>1023</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>1024</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>1025</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>1026</v>
-      </c>
-      <c r="J103" t="s">
-        <v>1027</v>
       </c>
       <c r="K103">
         <v>449</v>
@@ -10437,7 +10434,7 @@
         <v>648</v>
       </c>
       <c r="S103" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.3">
@@ -10451,25 +10448,25 @@
         <v>75</v>
       </c>
       <c r="D104" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E104" t="s">
         <v>1029</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>1030</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>1031</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>1032</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>1033</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>1034</v>
-      </c>
-      <c r="J104" t="s">
-        <v>1035</v>
       </c>
       <c r="K104">
         <v>238</v>
@@ -10496,7 +10493,7 @@
         <v>790</v>
       </c>
       <c r="S104" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.3">
@@ -10510,25 +10507,25 @@
         <v>86</v>
       </c>
       <c r="D105" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E105" t="s">
         <v>1037</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>1038</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>1039</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>1040</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>1041</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>1042</v>
-      </c>
-      <c r="J105" t="s">
-        <v>1043</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -10552,10 +10549,10 @@
         <v>840</v>
       </c>
       <c r="R105" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S105" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
@@ -10569,25 +10566,25 @@
         <v>97</v>
       </c>
       <c r="D106" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E106" t="s">
         <v>1045</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>1046</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>1047</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>1048</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>1049</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>1050</v>
-      </c>
-      <c r="J106" t="s">
-        <v>1051</v>
       </c>
       <c r="K106">
         <v>281</v>
@@ -10608,13 +10605,13 @@
         <v>279</v>
       </c>
       <c r="Q106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R106" t="s">
         <v>1052</v>
       </c>
-      <c r="R106" t="s">
+      <c r="S106" t="s">
         <v>1053</v>
-      </c>
-      <c r="S106" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.3">
@@ -10625,28 +10622,28 @@
         <v>2020</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D107" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E107" t="s">
         <v>1055</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>1056</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>1057</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>1058</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>1059</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>1060</v>
-      </c>
-      <c r="J107" t="s">
-        <v>1061</v>
       </c>
       <c r="K107">
         <v>612</v>
@@ -10667,13 +10664,13 @@
         <v>286</v>
       </c>
       <c r="Q107" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R107" t="s">
         <v>1062</v>
       </c>
-      <c r="R107" t="s">
+      <c r="S107" t="s">
         <v>1063</v>
-      </c>
-      <c r="S107" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.3">
@@ -10684,28 +10681,28 @@
         <v>2020</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D108" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E108" t="s">
         <v>1065</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>1066</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>1067</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>1068</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>1069</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>1070</v>
-      </c>
-      <c r="J108" t="s">
-        <v>1071</v>
       </c>
       <c r="K108">
         <v>598</v>
@@ -10726,13 +10723,13 @@
         <v>374</v>
       </c>
       <c r="Q108" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R108" t="s">
         <v>1072</v>
       </c>
-      <c r="R108" t="s">
+      <c r="S108" t="s">
         <v>1073</v>
-      </c>
-      <c r="S108" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.3">
@@ -10743,28 +10740,28 @@
         <v>2020</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E109" t="s">
         <v>1075</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1076</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1077</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>1078</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>1079</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>1080</v>
-      </c>
-      <c r="J109" t="s">
-        <v>1081</v>
       </c>
       <c r="K109">
         <v>556</v>
@@ -10785,13 +10782,13 @@
         <v>368</v>
       </c>
       <c r="Q109" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R109" t="s">
         <v>1082</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
         <v>1083</v>
-      </c>
-      <c r="S109" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.3">
@@ -10802,28 +10799,28 @@
         <v>2020</v>
       </c>
       <c r="C110" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E110" t="s">
         <v>1085</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>1086</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>1087</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>1088</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>1089</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>1090</v>
-      </c>
-      <c r="J110" t="s">
-        <v>1091</v>
       </c>
       <c r="K110">
         <v>400</v>
@@ -10844,13 +10841,13 @@
         <v>530</v>
       </c>
       <c r="Q110" t="s">
+        <v>1091</v>
+      </c>
+      <c r="R110" t="s">
         <v>1092</v>
       </c>
-      <c r="R110" t="s">
+      <c r="S110" t="s">
         <v>1093</v>
-      </c>
-      <c r="S110" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.3">
@@ -10864,25 +10861,25 @@
         <v>19</v>
       </c>
       <c r="D111" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E111" t="s">
         <v>1095</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>1096</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>1097</v>
-      </c>
-      <c r="G111" t="s">
-        <v>1098</v>
       </c>
       <c r="H111" t="s">
         <v>76</v>
       </c>
       <c r="I111" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J111" t="s">
         <v>1099</v>
-      </c>
-      <c r="J111" t="s">
-        <v>1100</v>
       </c>
       <c r="K111">
         <v>456</v>
@@ -10903,13 +10900,13 @@
         <v>337</v>
       </c>
       <c r="Q111" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R111" t="s">
         <v>1101</v>
       </c>
-      <c r="R111" t="s">
+      <c r="S111" t="s">
         <v>1102</v>
-      </c>
-      <c r="S111" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.3">
@@ -10923,25 +10920,25 @@
         <v>30</v>
       </c>
       <c r="D112" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E112" t="s">
         <v>1104</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>1105</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>1106</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>1107</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>1108</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>1109</v>
-      </c>
-      <c r="J112" t="s">
-        <v>1110</v>
       </c>
       <c r="K112">
         <v>432</v>
@@ -10962,13 +10959,13 @@
         <v>295</v>
       </c>
       <c r="Q112" t="s">
+        <v>1110</v>
+      </c>
+      <c r="R112" t="s">
         <v>1111</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>1112</v>
-      </c>
-      <c r="S112" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -10982,25 +10979,25 @@
         <v>42</v>
       </c>
       <c r="D113" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E113" t="s">
         <v>1114</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>1115</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>1116</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>1117</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>1118</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>1119</v>
-      </c>
-      <c r="J113" t="s">
-        <v>1120</v>
       </c>
       <c r="K113">
         <v>495</v>
@@ -11021,13 +11018,13 @@
         <v>263</v>
       </c>
       <c r="Q113" t="s">
+        <v>1120</v>
+      </c>
+      <c r="R113" t="s">
         <v>1121</v>
       </c>
-      <c r="R113" t="s">
+      <c r="S113" t="s">
         <v>1122</v>
-      </c>
-      <c r="S113" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.3">
@@ -11041,25 +11038,25 @@
         <v>53</v>
       </c>
       <c r="D114" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E114" t="s">
         <v>1124</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>1125</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>1126</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>1127</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>1128</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>1129</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1130</v>
       </c>
       <c r="K114">
         <v>408</v>
@@ -11080,13 +11077,13 @@
         <v>198</v>
       </c>
       <c r="Q114" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R114" t="s">
         <v>1131</v>
       </c>
-      <c r="R114" t="s">
+      <c r="S114" t="s">
         <v>1132</v>
-      </c>
-      <c r="S114" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
@@ -11100,25 +11097,25 @@
         <v>64</v>
       </c>
       <c r="D115" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E115" t="s">
         <v>1134</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>1135</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>1136</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>1137</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>1138</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>1139</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1140</v>
       </c>
       <c r="K115">
         <v>414</v>
@@ -11139,13 +11136,13 @@
         <v>307</v>
       </c>
       <c r="Q115" t="s">
+        <v>1140</v>
+      </c>
+      <c r="R115" t="s">
         <v>1141</v>
       </c>
-      <c r="R115" t="s">
+      <c r="S115" t="s">
         <v>1142</v>
-      </c>
-      <c r="S115" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
@@ -11159,25 +11156,25 @@
         <v>75</v>
       </c>
       <c r="D116" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E116" t="s">
         <v>1144</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>1145</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>1146</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>1147</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>1148</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>1149</v>
-      </c>
-      <c r="J116" t="s">
-        <v>1150</v>
       </c>
       <c r="K116">
         <v>412</v>
@@ -11198,13 +11195,13 @@
         <v>301</v>
       </c>
       <c r="Q116" t="s">
+        <v>1150</v>
+      </c>
+      <c r="R116" t="s">
         <v>1151</v>
       </c>
-      <c r="R116" t="s">
+      <c r="S116" t="s">
         <v>1152</v>
-      </c>
-      <c r="S116" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
@@ -11218,25 +11215,25 @@
         <v>86</v>
       </c>
       <c r="D117" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E117" t="s">
         <v>1154</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>1155</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>1156</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>1157</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>1158</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>1159</v>
-      </c>
-      <c r="J117" t="s">
-        <v>1160</v>
       </c>
       <c r="K117">
         <v>311</v>
@@ -11257,13 +11254,13 @@
         <v>389</v>
       </c>
       <c r="Q117" t="s">
+        <v>1160</v>
+      </c>
+      <c r="R117" t="s">
+        <v>954</v>
+      </c>
+      <c r="S117" t="s">
         <v>1161</v>
-      </c>
-      <c r="R117" t="s">
-        <v>955</v>
-      </c>
-      <c r="S117" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
@@ -11277,25 +11274,25 @@
         <v>97</v>
       </c>
       <c r="D118" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E118" t="s">
         <v>1163</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>1164</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>1165</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>1166</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>1167</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>1168</v>
-      </c>
-      <c r="J118" t="s">
-        <v>1169</v>
       </c>
       <c r="K118">
         <v>462</v>
@@ -11316,13 +11313,13 @@
         <v>169</v>
       </c>
       <c r="Q118" t="s">
+        <v>1169</v>
+      </c>
+      <c r="R118" t="s">
+        <v>182</v>
+      </c>
+      <c r="S118" t="s">
         <v>1170</v>
-      </c>
-      <c r="R118" t="s">
-        <v>183</v>
-      </c>
-      <c r="S118" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
@@ -11333,28 +11330,28 @@
         <v>2021</v>
       </c>
       <c r="C119" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D119" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E119" t="s">
         <v>1172</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G119" t="s">
         <v>1173</v>
       </c>
-      <c r="F119" t="s">
-        <v>190</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>1174</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>1175</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>1176</v>
-      </c>
-      <c r="J119" t="s">
-        <v>1177</v>
       </c>
       <c r="K119">
         <v>452</v>
@@ -11375,13 +11372,13 @@
         <v>365</v>
       </c>
       <c r="Q119" t="s">
+        <v>1177</v>
+      </c>
+      <c r="R119" t="s">
         <v>1178</v>
       </c>
-      <c r="R119" t="s">
+      <c r="S119" t="s">
         <v>1179</v>
-      </c>
-      <c r="S119" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
@@ -11392,28 +11389,28 @@
         <v>2021</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E120" t="s">
         <v>1181</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>1182</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>1183</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>1184</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>1185</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>1186</v>
-      </c>
-      <c r="J120" t="s">
-        <v>1187</v>
       </c>
       <c r="K120">
         <v>458</v>
@@ -11434,13 +11431,13 @@
         <v>359</v>
       </c>
       <c r="Q120" t="s">
+        <v>1187</v>
+      </c>
+      <c r="R120" t="s">
         <v>1188</v>
       </c>
-      <c r="R120" t="s">
+      <c r="S120" t="s">
         <v>1189</v>
-      </c>
-      <c r="S120" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
@@ -11451,28 +11448,28 @@
         <v>2021</v>
       </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D121" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E121" t="s">
         <v>1191</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
+        <v>357</v>
+      </c>
+      <c r="G121" t="s">
         <v>1192</v>
       </c>
-      <c r="F121" t="s">
-        <v>358</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>1193</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>1194</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>1195</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1196</v>
       </c>
       <c r="K121">
         <v>491</v>
@@ -11493,13 +11490,13 @@
         <v>297</v>
       </c>
       <c r="Q121" t="s">
+        <v>1196</v>
+      </c>
+      <c r="R121" t="s">
         <v>1197</v>
       </c>
-      <c r="R121" t="s">
+      <c r="S121" t="s">
         <v>1198</v>
-      </c>
-      <c r="S121" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
@@ -11510,28 +11507,28 @@
         <v>2021</v>
       </c>
       <c r="C122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D122" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E122" t="s">
         <v>1200</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>1201</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>1202</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>1203</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>1204</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>1205</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1206</v>
       </c>
       <c r="K122">
         <v>363</v>
@@ -11552,13 +11549,13 @@
         <v>278</v>
       </c>
       <c r="Q122" t="s">
+        <v>1206</v>
+      </c>
+      <c r="R122" t="s">
         <v>1207</v>
       </c>
-      <c r="R122" t="s">
+      <c r="S122" t="s">
         <v>1208</v>
-      </c>
-      <c r="S122" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
@@ -11572,25 +11569,25 @@
         <v>19</v>
       </c>
       <c r="D123" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E123" t="s">
         <v>1210</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>1211</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>1212</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>1213</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>1214</v>
       </c>
-      <c r="I123" t="s">
+      <c r="J123" t="s">
         <v>1215</v>
-      </c>
-      <c r="J123" t="s">
-        <v>1216</v>
       </c>
       <c r="K123">
         <v>406</v>
@@ -11611,13 +11608,13 @@
         <v>268</v>
       </c>
       <c r="Q123" t="s">
+        <v>1216</v>
+      </c>
+      <c r="R123" t="s">
         <v>1217</v>
       </c>
-      <c r="R123" t="s">
+      <c r="S123" t="s">
         <v>1218</v>
-      </c>
-      <c r="S123" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
@@ -11631,25 +11628,25 @@
         <v>30</v>
       </c>
       <c r="D124" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E124" t="s">
         <v>1220</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>1221</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>1222</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>1223</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>1224</v>
       </c>
-      <c r="I124" t="s">
+      <c r="J124" t="s">
         <v>1225</v>
-      </c>
-      <c r="J124" t="s">
-        <v>1226</v>
       </c>
       <c r="K124">
         <v>404</v>
@@ -11670,13 +11667,13 @@
         <v>328</v>
       </c>
       <c r="Q124" t="s">
+        <v>1226</v>
+      </c>
+      <c r="R124" t="s">
         <v>1227</v>
       </c>
-      <c r="R124" t="s">
+      <c r="S124" t="s">
         <v>1228</v>
-      </c>
-      <c r="S124" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
@@ -11690,25 +11687,25 @@
         <v>42</v>
       </c>
       <c r="D125" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E125" t="s">
         <v>1230</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>1231</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>1232</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>1233</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>1234</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>1235</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1236</v>
       </c>
       <c r="K125">
         <v>463</v>
@@ -11729,13 +11726,13 @@
         <v>219</v>
       </c>
       <c r="Q125" t="s">
+        <v>1236</v>
+      </c>
+      <c r="R125" t="s">
         <v>1237</v>
       </c>
-      <c r="R125" t="s">
+      <c r="S125" t="s">
         <v>1238</v>
-      </c>
-      <c r="S125" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
@@ -11749,25 +11746,25 @@
         <v>53</v>
       </c>
       <c r="D126" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E126" t="s">
         <v>1240</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>1241</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>1242</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>1243</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>1244</v>
       </c>
-      <c r="I126" t="s">
+      <c r="J126" t="s">
         <v>1245</v>
-      </c>
-      <c r="J126" t="s">
-        <v>1246</v>
       </c>
       <c r="K126">
         <v>336</v>
@@ -11788,13 +11785,13 @@
         <v>304</v>
       </c>
       <c r="Q126" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R126" t="s">
         <v>1247</v>
       </c>
-      <c r="R126" t="s">
+      <c r="S126" t="s">
         <v>1248</v>
-      </c>
-      <c r="S126" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
@@ -11808,25 +11805,25 @@
         <v>64</v>
       </c>
       <c r="D127" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E127" t="s">
         <v>1250</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>1251</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>1252</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>1253</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>1254</v>
       </c>
-      <c r="I127" t="s">
+      <c r="J127" t="s">
         <v>1255</v>
-      </c>
-      <c r="J127" t="s">
-        <v>1256</v>
       </c>
       <c r="K127">
         <v>452</v>
@@ -11847,13 +11844,13 @@
         <v>358</v>
       </c>
       <c r="Q127" t="s">
+        <v>1256</v>
+      </c>
+      <c r="R127" t="s">
         <v>1257</v>
       </c>
-      <c r="R127" t="s">
+      <c r="S127" t="s">
         <v>1258</v>
-      </c>
-      <c r="S127" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
@@ -11867,25 +11864,25 @@
         <v>75</v>
       </c>
       <c r="D128" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E128" t="s">
         <v>1260</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1261</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>1262</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>1263</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>1264</v>
       </c>
-      <c r="I128" t="s">
+      <c r="J128" t="s">
         <v>1265</v>
-      </c>
-      <c r="J128" t="s">
-        <v>1266</v>
       </c>
       <c r="K128">
         <v>450</v>
@@ -11906,13 +11903,13 @@
         <v>407</v>
       </c>
       <c r="Q128" t="s">
+        <v>1266</v>
+      </c>
+      <c r="R128" t="s">
         <v>1267</v>
       </c>
-      <c r="R128" t="s">
+      <c r="S128" t="s">
         <v>1268</v>
-      </c>
-      <c r="S128" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.3">
@@ -11926,25 +11923,25 @@
         <v>86</v>
       </c>
       <c r="D129" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E129" t="s">
         <v>1270</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>1271</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>1272</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>1273</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>1274</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>1275</v>
-      </c>
-      <c r="J129" t="s">
-        <v>1276</v>
       </c>
       <c r="K129">
         <v>468</v>
@@ -11965,13 +11962,13 @@
         <v>311</v>
       </c>
       <c r="Q129" t="s">
+        <v>1276</v>
+      </c>
+      <c r="R129" t="s">
         <v>1277</v>
       </c>
-      <c r="R129" t="s">
+      <c r="S129" t="s">
         <v>1278</v>
-      </c>
-      <c r="S129" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.3">
@@ -11985,25 +11982,25 @@
         <v>97</v>
       </c>
       <c r="D130" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E130" t="s">
         <v>1280</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>1281</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>1282</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>1283</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>1284</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>1285</v>
-      </c>
-      <c r="J130" t="s">
-        <v>1286</v>
       </c>
       <c r="K130">
         <v>802</v>
@@ -12024,13 +12021,13 @@
         <v>484</v>
       </c>
       <c r="Q130" t="s">
+        <v>1286</v>
+      </c>
+      <c r="R130" t="s">
         <v>1287</v>
       </c>
-      <c r="R130" t="s">
+      <c r="S130" t="s">
         <v>1288</v>
-      </c>
-      <c r="S130" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.3">
@@ -12041,28 +12038,28 @@
         <v>2022</v>
       </c>
       <c r="C131" t="s">
-        <v>108</v>
+        <v>1344</v>
       </c>
       <c r="D131" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E131" t="s">
         <v>1290</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>1291</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>1292</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>1293</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>1294</v>
       </c>
-      <c r="I131" t="s">
+      <c r="J131" t="s">
         <v>1295</v>
-      </c>
-      <c r="J131" t="s">
-        <v>1296</v>
       </c>
       <c r="K131">
         <v>768</v>
@@ -12083,13 +12080,13 @@
         <v>323</v>
       </c>
       <c r="Q131" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R131" t="s">
         <v>1297</v>
       </c>
-      <c r="R131" t="s">
+      <c r="S131" t="s">
         <v>1298</v>
-      </c>
-      <c r="S131" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.3">
@@ -12100,28 +12097,28 @@
         <v>2022</v>
       </c>
       <c r="C132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D132" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E132" t="s">
         <v>1300</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>1301</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>1302</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>1303</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>1304</v>
       </c>
-      <c r="I132" t="s">
+      <c r="J132" t="s">
         <v>1305</v>
-      </c>
-      <c r="J132" t="s">
-        <v>1306</v>
       </c>
       <c r="K132">
         <v>732</v>
@@ -12142,13 +12139,13 @@
         <v>267</v>
       </c>
       <c r="Q132" t="s">
+        <v>1306</v>
+      </c>
+      <c r="R132" t="s">
+        <v>258</v>
+      </c>
+      <c r="S132" t="s">
         <v>1307</v>
-      </c>
-      <c r="R132" t="s">
-        <v>259</v>
-      </c>
-      <c r="S132" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.3">
@@ -12159,28 +12156,28 @@
         <v>2022</v>
       </c>
       <c r="C133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E133" t="s">
         <v>1309</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1310</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>1311</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>1312</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>1313</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>1314</v>
-      </c>
-      <c r="J133" t="s">
-        <v>1315</v>
       </c>
       <c r="K133">
         <v>810</v>
@@ -12201,13 +12198,13 @@
         <v>378</v>
       </c>
       <c r="Q133" t="s">
+        <v>1315</v>
+      </c>
+      <c r="R133" t="s">
         <v>1316</v>
       </c>
-      <c r="R133" t="s">
+      <c r="S133" t="s">
         <v>1317</v>
-      </c>
-      <c r="S133" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.3">
@@ -12218,28 +12215,28 @@
         <v>2022</v>
       </c>
       <c r="C134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D134" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E134" t="s">
         <v>1319</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1320</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>1321</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>1322</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>1323</v>
       </c>
-      <c r="I134" t="s">
+      <c r="J134" t="s">
         <v>1324</v>
-      </c>
-      <c r="J134" t="s">
-        <v>1325</v>
       </c>
       <c r="K134">
         <v>691</v>
@@ -12260,66 +12257,66 @@
         <v>67</v>
       </c>
       <c r="Q134" t="s">
+        <v>1325</v>
+      </c>
+      <c r="R134" t="s">
         <v>1326</v>
       </c>
-      <c r="R134" t="s">
+      <c r="S134" t="s">
         <v>1327</v>
-      </c>
-      <c r="S134" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C135" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D135" t="s">
         <v>1329</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>1330</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>1331</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>1332</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>1333</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>1334</v>
       </c>
-      <c r="I135" t="s">
+      <c r="J135" t="s">
         <v>1335</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>1336</v>
-      </c>
-      <c r="K135" t="s">
-        <v>1337</v>
       </c>
       <c r="L135">
         <v>708</v>
       </c>
       <c r="M135" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N135" t="s">
         <v>1338</v>
       </c>
-      <c r="N135" t="s">
+      <c r="O135" t="s">
         <v>1339</v>
       </c>
-      <c r="O135" t="s">
+      <c r="P135" t="s">
         <v>1340</v>
       </c>
-      <c r="P135" t="s">
+      <c r="Q135" t="s">
         <v>1341</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="R135" t="s">
         <v>1342</v>
       </c>
-      <c r="R135" t="s">
+      <c r="S135" t="s">
         <v>1343</v>
-      </c>
-      <c r="S135" t="s">
-        <v>1344</v>
       </c>
     </row>
   </sheetData>
